--- a/Scrape/4U2/4U2Eyes.xlsx
+++ b/Scrape/4U2/4U2Eyes.xlsx
@@ -110,7 +110,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1716039243-1</t>
+          <t>1716481575-1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -129,6 +129,307 @@
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>ฟรี
+        4U2 For You Too Eyeshadow 1.8g #09 LOL
+            4.5 / 5.0
+                                                        ฿159
+                                                    - 39%
+        ฿259</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878634422046.jpg</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86921)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>4U2 For You Too Eyeshadow 1.8g #09 LOL อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>1716481578-2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>"4U2、อายแชโดว์"</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>ฟรี
+        4U2 For You Too Eyeshadow 1.8g #01 What'S Up?
+                                                        ฿159
+                                                    - 39%
+        ฿259</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878635675024.jpg</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li class="active" selected="" title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86913)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>4U2 For You Too Eyeshadow 1.8g #01 What'S Up? อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>1716481580-3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>"4U2、อายแชโดว์"</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>ฟรี
+        4U2 For You Too Eyeshadow 1.8g #13 Go Banana
+                                                        ฿159
+                                                    - 39%
+        ฿259</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878633501574.jpg</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li class="active" selected="" title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;
+                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86925)"&gt;
+                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
+                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
+                                        &lt;/a&gt;
+                                    &lt;/li&gt;</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>4U2 For You Too Eyeshadow 1.8g #13 Go Banana อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1716481582-4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>"4U2、อายแชโดว์"</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
+        </is>
+      </c>
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>ฟรี
         4U2 For You Too Eyeshadow 1.8g #10 Keep It Real
@@ -138,17 +439,17 @@
         ฿259</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr">
         <is>
           <t>https://s2.konvy.com/static/team/2023/0627/16878634084518.jpg</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="H5" s="1" t="inlineStr">
         <is>
           <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86922)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
@@ -202,34 +503,34 @@
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>4U2 For You Too Eyeshadow 1.8g #10 Keep It Real อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1716039251-2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="inlineStr">
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1716481585-5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>"4U2、อายแชโดว์"</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>ฟรี
         4U2 For You Too Eyeshadow 1.8g #11 She Is Not
@@ -238,17 +539,17 @@
         ฿259</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878620923322.jpg</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878633895642.jpg</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86923)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
@@ -302,417 +603,117 @@
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>4U2 For You Too Eyeshadow 1.8g #11 She Is Not อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1716039264-3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1716481587-6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>"4U2、อายแชโดว์"</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D7" s="1" t="inlineStr">
         <is>
           <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E7" s="1" t="inlineStr">
         <is>
           <t>ฟรี
-        4U2 For You Too Eyeshadow 1.8g #09 LOL
-            4.5 / 5.0
+        4U2 For You Too Eyeshadow 1.8g #15 Bye For Now
+            5.0 / 5.0
                                                         ฿159
                                                     - 39%
         ฿259</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878620297748.jpg</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86921)"&gt;
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878633145054.jpg</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86921)"&gt;
+                                                                                                    &lt;li class="active" selected="" title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86927)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>4U2 For You Too Eyeshadow 1.8g #09 LOL อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1716039269-4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>"4U2、อายแชโดว์"</t>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E5" s="1" t="inlineStr">
-        <is>
-          <t>ฟรี
-        4U2 For You Too Eyeshadow 1.8g #01 What'S Up?
-                                                        ฿159
-                                                    - 39%
-        ฿259</t>
-        </is>
-      </c>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878618079644.jpg</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li class="active" selected="" title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86913)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
-        <is>
-          <t>4U2 For You Too Eyeshadow 1.8g #01 What'S Up? อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1716039273-5</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>"4U2、อายแชโดว์"</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>ฟรี
-        4U2 For You Too Eyeshadow 1.8g #13 Go Banana
-                                                        ฿159
-                                                    - 39%
-        ฿259</t>
-        </is>
-      </c>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878633501574.jpg</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86925)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>4U2 For You Too Eyeshadow 1.8g #13 Go Banana อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1716039277-6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/list/eyeshadow/?filter_params=-1:50</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>"4U2、อายแชโดว์"</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/category/2023/0214/16763525585449_240x240.jpg</t>
-        </is>
-      </c>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>ฟรี
-        4U2 For You Too Eyeshadow 1.8g #07 Don'T Worry, Be Happy
-                                                        ฿159
-                                                    - 39%
-        ฿259</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878619814728.jpg</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;
-                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86919)"&gt;
-                                        &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
-                                            &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
-                                        &lt;/a&gt;
-                                    &lt;/li&gt;</t>
-        </is>
-      </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>4U2 For You Too Eyeshadow 1.8g #07 Don'T Worry, Be Happy อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
+          <t>4U2 For You Too Eyeshadow 1.8g #15 Bye For Now อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
         </is>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1716039284-7</t>
+          <t>1716481589-7</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -747,7 +748,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878621705672.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878633323611.jpg</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -813,7 +814,7 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1716039286-8</t>
+          <t>1716481592-8</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
@@ -914,7 +915,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1716039288-9</t>
+          <t>1716481594-9</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -935,8 +936,7 @@
       <c r="E10" s="1" t="inlineStr">
         <is>
           <t>ฟรี
-        4U2 For You Too Eyeshadow 1.8g #15 Bye For Now
-            5.0 / 5.0
+        4U2 For You Too Eyeshadow 1.8g #07 Don'T Worry, Be Happy
                                                         ฿159
                                                     - 39%
         ฿259</t>
@@ -944,62 +944,62 @@
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html</t>
+          <t>https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>https://s2.konvy.com/static/team/2023/0627/16878633145054.jpg</t>
+          <t>https://s2.konvy.com/static/team/2023/0627/16878634622206.jpg</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86927)"&gt;
+          <t>&lt;li title="#01" onmouseover="relatedOption(86913)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-01-what%27s-up%3f-86913.html')" title="#01" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878618075811.jpg" alt="#01"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#04" onmouseover="relatedOption(86916)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-04-by-the-way-86916.html')" title="#04" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617838042.jpg" alt="#04"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#06" onmouseover="relatedOption(86918)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-06-oh-my-god%21-86918.html')" title="#06" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617781561.jpg" alt="#06"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li class="active" selected="" title="#07" onmouseover="relatedOption(86919)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-07-don%27t-worry%2c-be-happy-86919.html')" title="#07" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617749250.jpg" alt="#07"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#09" onmouseover="relatedOption(86921)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-09-lol-86921.html')" title="#09" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617695998.jpg" alt="#09"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#10" onmouseover="relatedOption(86922)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-10-keep-it-real-86922.html')" title="#10" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617676203.jpg" alt="#10"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#11" onmouseover="relatedOption(86923)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-11-she-is-not-86923.html')" title="#11" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617648698.jpg" alt="#11"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#13" onmouseover="relatedOption(86925)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-13-go-banana-86925.html')" title="#13" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617603255.jpg" alt="#13"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#14" onmouseover="relatedOption(86926)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-14-no-big-deal-86926.html')" title="#14" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617577807.jpg" alt="#14"&gt;
                                         &lt;/a&gt;
                                     &lt;/li&gt;
-                                                                                                    &lt;li class="active" selected="" title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86927)"&gt;
+                                                                                                    &lt;li title="#15" onmouseover="relatedOption(86927)" onmouseout="relatedOption(86919)"&gt;
                                         &lt;a href="javascript:;" onclick="ky.loading();window.location.replace('https://www.konvy.com/4u2/4u2-for-you-too-eyeshadow-1.8g-15-bye-for-now-86927.html')" title="#15" class="ky-d ky-pointer"&gt;
                                             &lt;img class="ky-w100" src="https://s2.konvy.com/static/team_related/2023/0627/16878617542376.jpg" alt="#15"&gt;
                                         &lt;/a&gt;
@@ -1008,14 +1008,14 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>4U2 For You Too Eyeshadow 1.8g #15 Bye For Now อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
+          <t>4U2 For You Too Eyeshadow 1.8g #07 Don'T Worry, Be Happy อายแชโดว์เนื้อแมทและเนื้อเจลลี่ จากโฟร์ยูทู นุ่มลื่น บางเบา ด้วยอณูแป้ง Splendid Soft Touch มาพร้อมกลิตเตอร์รูปแบบพิเศษให้ความโปร่งแสงสูง ด้วยเทคโนโลยี Glow Glory Jewel ช่วยให้เนื้ออายแชโดว์วิ้งค์ เปล่งประกาย  เม็ดสีชัด ติดทนไม่หลุดร่วงระหว่างวัน</t>
         </is>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1716039291-10</t>
+          <t>1716481596-10</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
